--- a/protocolos.xlsx
+++ b/protocolos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jddel\.vscode\TT-Buscador-y-recomendador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B86DFB2-2D9D-4909-A89B-A4CFDD2C9572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F130E1-9D5E-4211-B3DD-081F097F3479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10623,7 +10623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -10631,7 +10631,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10972,8 +10971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K423"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10984,8 +10983,8 @@
     <col min="4" max="4" width="11.26953125" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.90625" customWidth="1"/>
     <col min="6" max="6" width="10.453125" customWidth="1"/>
-    <col min="7" max="7" width="145.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="255.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.26953125" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
     <col min="9" max="9" width="19.08984375" customWidth="1"/>
     <col min="10" max="10" width="23.36328125" customWidth="1"/>
     <col min="11" max="11" width="13.54296875" customWidth="1"/>
@@ -18517,7 +18516,7 @@
       <c r="B216" t="s">
         <v>2827</v>
       </c>
-      <c r="C216" s="3" t="s">
+      <c r="C216" t="s">
         <v>169</v>
       </c>
       <c r="D216" s="2" t="s">
@@ -20999,7 +20998,7 @@
       <c r="A287">
         <v>286</v>
       </c>
-      <c r="B287" s="3" t="s">
+      <c r="B287" t="s">
         <v>2900</v>
       </c>
       <c r="C287" t="s">
@@ -22679,7 +22678,7 @@
       <c r="A335">
         <v>334</v>
       </c>
-      <c r="B335" s="3" t="s">
+      <c r="B335" t="s">
         <v>2943</v>
       </c>
       <c r="C335" t="s">
@@ -23067,7 +23066,7 @@
       <c r="B346" t="s">
         <v>2951</v>
       </c>
-      <c r="C346" s="3" t="s">
+      <c r="C346" t="s">
         <v>3135</v>
       </c>
       <c r="D346" s="2" t="s">
@@ -25552,7 +25551,7 @@
       <c r="B417" t="s">
         <v>2980</v>
       </c>
-      <c r="C417" s="3" t="s">
+      <c r="C417" t="s">
         <v>254</v>
       </c>
       <c r="D417" s="2" t="s">
